--- a/examples/ftest/fm24/comparison2.xlsx
+++ b/examples/ftest/fm24/comparison2.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Joh\git\ReinsuranceTestTool\examples\ftest\fm24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CFE93FE0-69F0-43C3-8442-7BA134386476}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D7E1769C-BF4E-4F11-BC61-868FCE0A9EEE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{2FC7C141-5354-4782-8D27-7665EC95AD74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$3:$E$84</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
   <si>
     <t>GR LOSS (GU Loss net of Pol- &amp; Loc-Level Terms)</t>
   </si>
@@ -67,6 +71,39 @@
   </si>
   <si>
     <t>ri_2_LOC</t>
+  </si>
+  <si>
+    <t>event_id</t>
+  </si>
+  <si>
+    <t>output_id</t>
+  </si>
+  <si>
+    <t>sidx</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>location_number</t>
+  </si>
+  <si>
+    <t>coverage</t>
+  </si>
+  <si>
+    <t>Bldgs</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>Time Element</t>
+  </si>
+  <si>
+    <t>ri_3_LOC</t>
   </si>
 </sst>
 </file>
@@ -116,10 +153,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856E6E11-7291-415E-A73C-176F266DC595}">
-  <dimension ref="A3:I16"/>
+  <dimension ref="A3:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H8" sqref="G8:H15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,9 +491,10 @@
     <col min="7" max="7" width="34.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -478,8 +519,11 @@
       <c r="I3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -507,8 +551,11 @@
       <c r="I4">
         <v>127569157.65771291</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="1">
+        <v>135249652.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -536,8 +583,11 @@
       <c r="I5">
         <v>68303932.511112928</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="1">
+        <v>75984406.980000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -565,8 +615,11 @@
       <c r="I6">
         <v>30803822.868391097</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="1">
+        <v>38484299.340000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -594,8 +647,11 @@
       <c r="I7">
         <v>13462556.144535003</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="1">
+        <v>18870521.060000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -617,14 +673,17 @@
       <c r="G8">
         <v>30665930.522561476</v>
       </c>
-      <c r="H8" s="1">
-        <v>14999996.75</v>
+      <c r="H8" s="2">
+        <v>30665926.120000001</v>
       </c>
       <c r="I8">
         <v>22985445.01818835</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="1">
+        <v>30665926.120000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -646,14 +705,17 @@
       <c r="G9">
         <v>17645441.569801137</v>
       </c>
-      <c r="H9" s="1">
-        <v>17099998</v>
+      <c r="H9" s="2">
+        <v>17645439.5</v>
       </c>
       <c r="I9">
         <v>12557693.253425172</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1">
+        <v>17645439.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -675,14 +737,17 @@
       <c r="G10">
         <v>235105.56547061566</v>
       </c>
-      <c r="H10" s="1">
-        <v>114999.97</v>
+      <c r="H10" s="2">
+        <v>235105.43</v>
       </c>
       <c r="I10">
         <v>235105.56547061566</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="1">
+        <v>235105.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -704,14 +769,17 @@
       <c r="G11">
         <v>7710130.3074669745</v>
       </c>
-      <c r="H11" s="1">
-        <v>5999998.1200000001</v>
+      <c r="H11" s="2">
+        <v>7710128.75</v>
       </c>
       <c r="I11">
         <v>5424986.3774589347</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="1">
+        <v>7710128.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -733,14 +801,17 @@
       <c r="G12">
         <v>34244243.25385648</v>
       </c>
-      <c r="H12" s="1">
-        <v>19999997.5</v>
+      <c r="H12" s="2">
+        <v>34244237.5</v>
       </c>
       <c r="I12">
         <v>26563757.749483351</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="1">
+        <v>34244237.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -762,40 +833,22 @@
       <c r="G13">
         <v>20574149.020843305</v>
       </c>
-      <c r="H13" s="1">
-        <v>18750000</v>
+      <c r="H13" s="2">
+        <v>20574147.25</v>
       </c>
       <c r="I13">
         <v>14757432.094221627</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>112000000</v>
-      </c>
-      <c r="C14">
-        <v>112000000</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2000000.12</v>
-      </c>
-      <c r="E14">
-        <v>112000000</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2000000.12</v>
-      </c>
-      <c r="G14">
-        <v>54818392.274699792</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1250000</v>
-      </c>
-      <c r="I14">
-        <v>41321189.843704976</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="1">
+        <v>20574147.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>711250000.24000001</v>
       </c>
@@ -808,11 +861,1844 @@
       <c r="G16">
         <v>379663889.24000001</v>
       </c>
+      <c r="H16" s="2">
+        <f>SUM(H4:H13)</f>
+        <v>379663864.65000004</v>
+      </c>
       <c r="I16">
         <v>322663889.24000001</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="C22:F76">
+    <sortCondition ref="D22:D76"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D130028E-96A3-46AA-97CD-79B05AB485B5}">
+  <dimension ref="B3:T84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T4" sqref="T4:T13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>-3</v>
+      </c>
+      <c r="E4">
+        <v>116142360</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>-3</v>
+      </c>
+      <c r="K4">
+        <v>116142360</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <f>SUMIF($P$4:$P$30,S4,$K$4:$K$30)</f>
+        <v>135249652.72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>116142360</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>-3</v>
+      </c>
+      <c r="K5">
+        <v>18732640</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T13" si="0">SUMIF($P$4:$P$30,S5,$K$4:$K$30)</f>
+        <v>75984406.980000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>116142360</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>-3</v>
+      </c>
+      <c r="K6">
+        <v>374652.72</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>38484299.340000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>-3</v>
+      </c>
+      <c r="E7">
+        <v>18732640</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>-3</v>
+      </c>
+      <c r="K7">
+        <v>59422080</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>18870521.060000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>18732640</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>-3</v>
+      </c>
+      <c r="K8">
+        <v>16435897</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>30665926.120000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>18732640</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>-3</v>
+      </c>
+      <c r="K9">
+        <v>126429.98</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="3">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>17645439.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>-3</v>
+      </c>
+      <c r="E10">
+        <v>374652.72</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>-3</v>
+      </c>
+      <c r="K10">
+        <v>31439518</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="3">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>235105.43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>374652.72</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>-3</v>
+      </c>
+      <c r="K11">
+        <v>6986560</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="3">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>7710128.75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>374652.72</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>-3</v>
+      </c>
+      <c r="K12">
+        <v>58221.34</v>
+      </c>
+      <c r="O12">
+        <v>9</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>34244237.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>-3</v>
+      </c>
+      <c r="E13">
+        <v>59422080</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>-3</v>
+      </c>
+      <c r="K13">
+        <v>16708274</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>20574147.25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>59422080</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>-3</v>
+      </c>
+      <c r="K14">
+        <v>1965679.12</v>
+      </c>
+      <c r="O14">
+        <v>11</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>59422080</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>-3</v>
+      </c>
+      <c r="K15">
+        <v>196567.94</v>
+      </c>
+      <c r="O15">
+        <v>12</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>-3</v>
+      </c>
+      <c r="E16">
+        <v>16435897</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>13</v>
+      </c>
+      <c r="J16">
+        <v>-3</v>
+      </c>
+      <c r="K16">
+        <v>20251084</v>
+      </c>
+      <c r="O16">
+        <v>13</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>16435897</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>-3</v>
+      </c>
+      <c r="K17">
+        <v>8679035</v>
+      </c>
+      <c r="O17">
+        <v>14</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>16435897</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <v>-3</v>
+      </c>
+      <c r="K18">
+        <v>1735807.12</v>
+      </c>
+      <c r="O18">
+        <v>15</v>
+      </c>
+      <c r="P18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>-3</v>
+      </c>
+      <c r="E19">
+        <v>126429.98</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>16</v>
+      </c>
+      <c r="J19">
+        <v>-3</v>
+      </c>
+      <c r="K19">
+        <v>12351807</v>
+      </c>
+      <c r="O19">
+        <v>16</v>
+      </c>
+      <c r="P19" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>126429.98</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>-3</v>
+      </c>
+      <c r="K20">
+        <v>5293632.5</v>
+      </c>
+      <c r="O20">
+        <v>17</v>
+      </c>
+      <c r="P20" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>126429.98</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <v>-3</v>
+      </c>
+      <c r="K21">
+        <v>173037.62</v>
+      </c>
+      <c r="O21">
+        <v>18</v>
+      </c>
+      <c r="P21" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>-3</v>
+      </c>
+      <c r="E22">
+        <v>31439518</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>19</v>
+      </c>
+      <c r="J22">
+        <v>-3</v>
+      </c>
+      <c r="K22">
+        <v>62067.81</v>
+      </c>
+      <c r="O22">
+        <v>19</v>
+      </c>
+      <c r="P22" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
+      <c r="E23">
+        <v>31439518</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>-3</v>
+      </c>
+      <c r="K23">
+        <v>5507235</v>
+      </c>
+      <c r="O23">
+        <v>20</v>
+      </c>
+      <c r="P23" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>31439518</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>21</v>
+      </c>
+      <c r="J24">
+        <v>-3</v>
+      </c>
+      <c r="K24">
+        <v>2202893.75</v>
+      </c>
+      <c r="O24">
+        <v>21</v>
+      </c>
+      <c r="P24" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>-3</v>
+      </c>
+      <c r="E25">
+        <v>6986560</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>22</v>
+      </c>
+      <c r="J25">
+        <v>-3</v>
+      </c>
+      <c r="K25">
+        <v>25683178</v>
+      </c>
+      <c r="O25">
+        <v>22</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>-1</v>
+      </c>
+      <c r="E26">
+        <v>6986560</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>23</v>
+      </c>
+      <c r="J26">
+        <v>-3</v>
+      </c>
+      <c r="K26">
+        <v>6420794.5</v>
+      </c>
+      <c r="O26">
+        <v>23</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>6986560</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>24</v>
+      </c>
+      <c r="J27">
+        <v>-3</v>
+      </c>
+      <c r="K27">
+        <v>2140265</v>
+      </c>
+      <c r="O27">
+        <v>24</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>-3</v>
+      </c>
+      <c r="E28">
+        <v>58221.34</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>25</v>
+      </c>
+      <c r="J28">
+        <v>-3</v>
+      </c>
+      <c r="K28">
+        <v>12858842</v>
+      </c>
+      <c r="O28">
+        <v>25</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <v>58221.34</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>26</v>
+      </c>
+      <c r="J29">
+        <v>-3</v>
+      </c>
+      <c r="K29">
+        <v>6429421</v>
+      </c>
+      <c r="O29">
+        <v>26</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>58221.34</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>27</v>
+      </c>
+      <c r="J30">
+        <v>-3</v>
+      </c>
+      <c r="K30">
+        <v>1285884.25</v>
+      </c>
+      <c r="O30">
+        <v>27</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>-3</v>
+      </c>
+      <c r="E31">
+        <v>16708274</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>-1</v>
+      </c>
+      <c r="E32">
+        <v>16708274</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>16708274</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>-3</v>
+      </c>
+      <c r="E34">
+        <v>1965679.12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>-1</v>
+      </c>
+      <c r="E35">
+        <v>1965679.12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1965679.12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>-3</v>
+      </c>
+      <c r="E37">
+        <v>196567.94</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>-1</v>
+      </c>
+      <c r="E38">
+        <v>196567.94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>196567.94</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>-3</v>
+      </c>
+      <c r="E40">
+        <v>20251084</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>13</v>
+      </c>
+      <c r="D41">
+        <v>-1</v>
+      </c>
+      <c r="E41">
+        <v>20251084</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>20251084</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>-3</v>
+      </c>
+      <c r="E43">
+        <v>8679035</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>-1</v>
+      </c>
+      <c r="E44">
+        <v>8679035</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>8679035</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>-3</v>
+      </c>
+      <c r="E46">
+        <v>1735807.12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>-1</v>
+      </c>
+      <c r="E47">
+        <v>1735807.12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1735807.12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>16</v>
+      </c>
+      <c r="D49">
+        <v>-3</v>
+      </c>
+      <c r="E49">
+        <v>12351807</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>16</v>
+      </c>
+      <c r="D50">
+        <v>-1</v>
+      </c>
+      <c r="E50">
+        <v>12351807</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>16</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>12351807</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>17</v>
+      </c>
+      <c r="D52">
+        <v>-3</v>
+      </c>
+      <c r="E52">
+        <v>5293632.5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>17</v>
+      </c>
+      <c r="D53">
+        <v>-1</v>
+      </c>
+      <c r="E53">
+        <v>5293632.5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>17</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>5293632.5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>18</v>
+      </c>
+      <c r="D55">
+        <v>-3</v>
+      </c>
+      <c r="E55">
+        <v>173037.62</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>18</v>
+      </c>
+      <c r="D56">
+        <v>-1</v>
+      </c>
+      <c r="E56">
+        <v>173037.62</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>18</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>173037.62</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>19</v>
+      </c>
+      <c r="D58">
+        <v>-3</v>
+      </c>
+      <c r="E58">
+        <v>62067.81</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>19</v>
+      </c>
+      <c r="D59">
+        <v>-1</v>
+      </c>
+      <c r="E59">
+        <v>62067.81</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>19</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>62067.81</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <v>-3</v>
+      </c>
+      <c r="E61">
+        <v>5507235</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>-1</v>
+      </c>
+      <c r="E62">
+        <v>5507235</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>20</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>5507235</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>21</v>
+      </c>
+      <c r="D64">
+        <v>-3</v>
+      </c>
+      <c r="E64">
+        <v>2202893.75</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>21</v>
+      </c>
+      <c r="D65">
+        <v>-1</v>
+      </c>
+      <c r="E65">
+        <v>2202893.75</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>21</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>2202893.75</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>22</v>
+      </c>
+      <c r="D67">
+        <v>-3</v>
+      </c>
+      <c r="E67">
+        <v>25683178</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>22</v>
+      </c>
+      <c r="D68">
+        <v>-1</v>
+      </c>
+      <c r="E68">
+        <v>25683178</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>22</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>25683178</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>23</v>
+      </c>
+      <c r="D70">
+        <v>-3</v>
+      </c>
+      <c r="E70">
+        <v>6420794.5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>23</v>
+      </c>
+      <c r="D71">
+        <v>-1</v>
+      </c>
+      <c r="E71">
+        <v>6420794.5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>23</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>6420794.5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>24</v>
+      </c>
+      <c r="D73">
+        <v>-3</v>
+      </c>
+      <c r="E73">
+        <v>2140265</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>24</v>
+      </c>
+      <c r="D74">
+        <v>-1</v>
+      </c>
+      <c r="E74">
+        <v>2140265</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>24</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>2140265</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>25</v>
+      </c>
+      <c r="D76">
+        <v>-3</v>
+      </c>
+      <c r="E76">
+        <v>12858842</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>25</v>
+      </c>
+      <c r="D77">
+        <v>-1</v>
+      </c>
+      <c r="E77">
+        <v>12858842</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>25</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>12858842</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>26</v>
+      </c>
+      <c r="D79">
+        <v>-3</v>
+      </c>
+      <c r="E79">
+        <v>6429421</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>26</v>
+      </c>
+      <c r="D80">
+        <v>-1</v>
+      </c>
+      <c r="E80">
+        <v>6429421</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>26</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>6429421</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>27</v>
+      </c>
+      <c r="D82">
+        <v>-3</v>
+      </c>
+      <c r="E82">
+        <v>1285884.25</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>27</v>
+      </c>
+      <c r="D83">
+        <v>-1</v>
+      </c>
+      <c r="E83">
+        <v>1285884.25</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>27</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1285884.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B3:E84" xr:uid="{D6D9AF95-8524-4E74-AABE-CF7900E3D75E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/examples/ftest/fm24/comparison2.xlsx
+++ b/examples/ftest/fm24/comparison2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Joh\git\ReinsuranceTestTool\examples\ftest\fm24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D7E1769C-BF4E-4F11-BC61-868FCE0A9EEE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2EADC383-8F22-40A1-8BEC-364F9B1D3659}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{2FC7C141-5354-4782-8D27-7665EC95AD74}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
   <si>
     <t>GR LOSS (GU Loss net of Pol- &amp; Loc-Level Terms)</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>ri_3_LOC</t>
+  </si>
+  <si>
+    <t>ils</t>
   </si>
 </sst>
 </file>
@@ -474,404 +477,442 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856E6E11-7291-415E-A73C-176F266DC595}">
-  <dimension ref="A3:J16"/>
+  <dimension ref="A3:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>210427461.13989636</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
+        <v>210427469.56</v>
+      </c>
+      <c r="D4">
         <v>160427461.13989636</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>160427469.38</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>135249643.16208604</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>135249652.72</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>135249643.16208604</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>135249652.72</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>127569157.65771291</v>
       </c>
-      <c r="J4" s="1">
-        <v>135249652.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="2">
+        <v>127569167.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <v>140129533.67875648</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
+        <v>140129528.62</v>
+      </c>
+      <c r="D5">
         <v>90129533.678756475</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>90129521.939999998</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>75984418.015486047</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>75984406.980000004</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>75984418.015486047</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>75984406.980000004</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>68303932.511112928</v>
       </c>
-      <c r="J5" s="1">
-        <v>75984406.980000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="2">
+        <v>68303923.469999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <v>77059585.492227986</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
+        <v>77059581.310000002</v>
+      </c>
+      <c r="D6">
         <v>45648474.492227986</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>45648464.719999999</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>38484308.37276423</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>38484299.340000004</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>38484308.37276423</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>38484299.340000004</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>30803822.868391097</v>
       </c>
-      <c r="J6" s="1">
-        <v>38484299.340000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="2">
+        <v>30803812.350000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <v>22383419.689119171</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
+        <v>22383420.91</v>
+      </c>
+      <c r="D7">
         <v>22383419.689119171</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>22383420.91</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18870519.44966368</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>18870521.060000002</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>18870519.44966368</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>18870521.060000002</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>13462556.144535003</v>
       </c>
-      <c r="J7" s="1">
-        <v>18870521.060000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="2">
+        <v>13462556.590000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
         <v>100000000</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
+        <v>99999993</v>
+      </c>
+      <c r="D8">
         <v>75000000</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>74999997</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>75000000</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>74999997</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>30665930.522561476</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>30665926.120000001</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>22985445.01818835</v>
       </c>
-      <c r="J8" s="1">
-        <v>30665926.120000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="2">
+        <v>22985440.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9">
         <v>28500000</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
+        <v>28499998</v>
+      </c>
+      <c r="D9">
         <v>28500000</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>28499998</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>28500000</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>28499998</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>17645441.569801137</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>17645439.5</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>12557693.253425172</v>
       </c>
-      <c r="J9" s="1">
-        <v>17645439.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="2">
+        <v>12557692.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10">
         <v>750000.24</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
+        <v>749999.9800000001</v>
+      </c>
+      <c r="D10">
         <v>575000.24</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>574999.97</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>575000.24</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>574999.97</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>235105.56547061566</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>235105.43</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>235105.56547061566</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="2">
         <v>235105.43</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11">
         <v>20000000</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
+        <v>19999999.5</v>
+      </c>
+      <c r="D11">
         <v>15000000</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>14999999</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>15000000</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>14999999</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>7710130.3074669745</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>7710128.75</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>5424986.3774589347</v>
       </c>
-      <c r="J11" s="1">
-        <v>7710128.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="2">
+        <v>5424985.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12">
         <v>80000000</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>80000000</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>80000000</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>80000000</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>80000000</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="H12">
         <v>34244243.25385648</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>34244237.5</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>26563757.749483351</v>
       </c>
-      <c r="J12" s="1">
-        <v>34244237.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="2">
+        <v>26563749.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13">
         <v>32000000</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
+        <v>32000000.120000001</v>
+      </c>
+      <c r="D13">
         <v>32000000</v>
       </c>
-      <c r="D13" s="2">
-        <v>30000000</v>
-      </c>
-      <c r="E13">
+      <c r="E13" s="2">
+        <v>32000000.120000001</v>
+      </c>
+      <c r="F13">
         <v>32000000</v>
       </c>
-      <c r="F13" s="2">
-        <v>30000000</v>
-      </c>
-      <c r="G13">
+      <c r="G13" s="2">
+        <v>32000000.120000001</v>
+      </c>
+      <c r="H13">
         <v>20574149.020843305</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>20574147.25</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>14757432.094221627</v>
       </c>
-      <c r="J13" s="1">
-        <v>20574147.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="2">
+        <v>14757430.380000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>711250000.24000001</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>549663889.24000001</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>499663889.24000001</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>379663889.24000001</v>
       </c>
-      <c r="H16" s="2">
-        <f>SUM(H4:H13)</f>
+      <c r="I16" s="2">
+        <f>SUM(I4:I13)</f>
         <v>379663864.65000004</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>322663889.24000001</v>
       </c>
+      <c r="K16" s="2">
+        <f>SUM(K4:K13)</f>
+        <v>322663862.81</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="C22:F76">
-    <sortCondition ref="D22:D76"/>
+  <sortState ref="D22:G76">
+    <sortCondition ref="E22:E76"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -881,7 +922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D130028E-96A3-46AA-97CD-79B05AB485B5}">
   <dimension ref="B3:T84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="T4" sqref="T4:T13"/>
     </sheetView>
   </sheetViews>
@@ -946,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>116142360</v>
@@ -988,7 +1029,7 @@
         <v>2</v>
       </c>
       <c r="J5">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>18732640</v>
@@ -1030,7 +1071,7 @@
         <v>3</v>
       </c>
       <c r="J6">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>374652.72</v>
@@ -1072,7 +1113,7 @@
         <v>4</v>
       </c>
       <c r="J7">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>59422080</v>
@@ -1114,7 +1155,7 @@
         <v>5</v>
       </c>
       <c r="J8">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>16435897</v>
@@ -1156,7 +1197,7 @@
         <v>6</v>
       </c>
       <c r="J9">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>126429.98</v>
@@ -1198,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="J10">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>31439518</v>
@@ -1240,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="J11">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>6986560</v>
@@ -1282,7 +1323,7 @@
         <v>9</v>
       </c>
       <c r="J12">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>58221.34</v>
@@ -1324,7 +1365,7 @@
         <v>10</v>
       </c>
       <c r="J13">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>16708274</v>
@@ -1366,7 +1407,7 @@
         <v>11</v>
       </c>
       <c r="J14">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>1965679.12</v>
@@ -1401,7 +1442,7 @@
         <v>12</v>
       </c>
       <c r="J15">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>196567.94</v>
@@ -1436,7 +1477,7 @@
         <v>13</v>
       </c>
       <c r="J16">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>20251084</v>
@@ -1471,7 +1512,7 @@
         <v>14</v>
       </c>
       <c r="J17">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>8679035</v>
@@ -1506,7 +1547,7 @@
         <v>15</v>
       </c>
       <c r="J18">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>1735807.12</v>
@@ -1541,7 +1582,7 @@
         <v>16</v>
       </c>
       <c r="J19">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>12351807</v>
@@ -1576,7 +1617,7 @@
         <v>17</v>
       </c>
       <c r="J20">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>5293632.5</v>
@@ -1611,7 +1652,7 @@
         <v>18</v>
       </c>
       <c r="J21">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <v>173037.62</v>
@@ -1646,7 +1687,7 @@
         <v>19</v>
       </c>
       <c r="J22">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>62067.81</v>
@@ -1681,7 +1722,7 @@
         <v>20</v>
       </c>
       <c r="J23">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K23">
         <v>5507235</v>
@@ -1716,7 +1757,7 @@
         <v>21</v>
       </c>
       <c r="J24">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>2202893.75</v>
@@ -1751,7 +1792,7 @@
         <v>22</v>
       </c>
       <c r="J25">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>25683178</v>
@@ -1786,7 +1827,7 @@
         <v>23</v>
       </c>
       <c r="J26">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>6420794.5</v>
@@ -1821,7 +1862,7 @@
         <v>24</v>
       </c>
       <c r="J27">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>2140265</v>
@@ -1856,7 +1897,7 @@
         <v>25</v>
       </c>
       <c r="J28">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <v>12858842</v>
@@ -1891,7 +1932,7 @@
         <v>26</v>
       </c>
       <c r="J29">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>6429421</v>
@@ -1926,7 +1967,7 @@
         <v>27</v>
       </c>
       <c r="J30">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <v>1285884.25</v>
@@ -1954,6 +1995,18 @@
       <c r="E31">
         <v>16708274</v>
       </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>-3</v>
+      </c>
+      <c r="K31">
+        <v>19818654</v>
+      </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32">
@@ -1968,8 +2021,20 @@
       <c r="E32">
         <v>16708274</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>-1</v>
+      </c>
+      <c r="K32">
+        <v>19818654</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>1</v>
       </c>
@@ -1983,7 +2048,7 @@
         <v>16708274</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>1</v>
       </c>
@@ -1996,8 +2061,20 @@
       <c r="E34">
         <v>1965679.12</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>11</v>
+      </c>
+      <c r="J34">
+        <v>-3</v>
+      </c>
+      <c r="K34">
+        <v>2331606.25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>1</v>
       </c>
@@ -2010,8 +2087,20 @@
       <c r="E35">
         <v>1965679.12</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>11</v>
+      </c>
+      <c r="J35">
+        <v>-1</v>
+      </c>
+      <c r="K35">
+        <v>2331606.25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>1</v>
       </c>
@@ -2025,7 +2114,7 @@
         <v>1965679.12</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>1</v>
       </c>
@@ -2038,8 +2127,20 @@
       <c r="E37">
         <v>196567.94</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>12</v>
+      </c>
+      <c r="J37">
+        <v>-3</v>
+      </c>
+      <c r="K37">
+        <v>233160.66</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>1</v>
       </c>
@@ -2052,8 +2153,20 @@
       <c r="E38">
         <v>196567.94</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>12</v>
+      </c>
+      <c r="J38">
+        <v>-1</v>
+      </c>
+      <c r="K38">
+        <v>233160.66</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>1</v>
       </c>
@@ -2067,7 +2180,7 @@
         <v>196567.94</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>1</v>
       </c>
@@ -2080,8 +2193,20 @@
       <c r="E40">
         <v>20251084</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>13</v>
+      </c>
+      <c r="J40">
+        <v>-3</v>
+      </c>
+      <c r="K40">
+        <v>49528300</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>1</v>
       </c>
@@ -2094,8 +2219,20 @@
       <c r="E41">
         <v>20251084</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>13</v>
+      </c>
+      <c r="J41">
+        <v>-1</v>
+      </c>
+      <c r="K41">
+        <v>49528300</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>1</v>
       </c>
@@ -2109,7 +2246,7 @@
         <v>20251084</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>1</v>
       </c>
@@ -2122,8 +2259,20 @@
       <c r="E43">
         <v>8679035</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>14</v>
+      </c>
+      <c r="J43">
+        <v>-3</v>
+      </c>
+      <c r="K43">
+        <v>21226414</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>1</v>
       </c>
@@ -2136,8 +2285,20 @@
       <c r="E44">
         <v>8679035</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>14</v>
+      </c>
+      <c r="J44">
+        <v>-1</v>
+      </c>
+      <c r="K44">
+        <v>21226414</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>1</v>
       </c>
@@ -2151,7 +2312,7 @@
         <v>8679035</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>1</v>
       </c>
@@ -2164,8 +2325,20 @@
       <c r="E46">
         <v>1735807.12</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>15</v>
+      </c>
+      <c r="J46">
+        <v>-3</v>
+      </c>
+      <c r="K46">
+        <v>4245283</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>1</v>
       </c>
@@ -2178,8 +2351,20 @@
       <c r="E47">
         <v>1735807.12</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>15</v>
+      </c>
+      <c r="J47">
+        <v>-1</v>
+      </c>
+      <c r="K47">
+        <v>4245283</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>1</v>
       </c>
@@ -2193,7 +2378,7 @@
         <v>1735807.12</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>1</v>
       </c>
@@ -2206,8 +2391,20 @@
       <c r="E49">
         <v>12351807</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>16</v>
+      </c>
+      <c r="J49">
+        <v>-3</v>
+      </c>
+      <c r="K49">
+        <v>19949998</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>1</v>
       </c>
@@ -2220,8 +2417,20 @@
       <c r="E50">
         <v>12351807</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>16</v>
+      </c>
+      <c r="J50">
+        <v>-1</v>
+      </c>
+      <c r="K50">
+        <v>19949998</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>1</v>
       </c>
@@ -2235,7 +2444,7 @@
         <v>12351807</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>1</v>
       </c>
@@ -2248,8 +2457,20 @@
       <c r="E52">
         <v>5293632.5</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>17</v>
+      </c>
+      <c r="J52">
+        <v>-3</v>
+      </c>
+      <c r="K52">
+        <v>8550000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>1</v>
       </c>
@@ -2262,8 +2483,20 @@
       <c r="E53">
         <v>5293632.5</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>17</v>
+      </c>
+      <c r="J53">
+        <v>-1</v>
+      </c>
+      <c r="K53">
+        <v>8550000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>1</v>
       </c>
@@ -2277,7 +2510,7 @@
         <v>5293632.5</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>1</v>
       </c>
@@ -2290,8 +2523,20 @@
       <c r="E55">
         <v>173037.62</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>18</v>
+      </c>
+      <c r="J55">
+        <v>-3</v>
+      </c>
+      <c r="K55">
+        <v>423200.03</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>1</v>
       </c>
@@ -2304,8 +2549,20 @@
       <c r="E56">
         <v>173037.62</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>18</v>
+      </c>
+      <c r="J56">
+        <v>-1</v>
+      </c>
+      <c r="K56">
+        <v>423200.03</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>1</v>
       </c>
@@ -2319,7 +2576,7 @@
         <v>173037.62</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>1</v>
       </c>
@@ -2332,8 +2589,20 @@
       <c r="E58">
         <v>62067.81</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>19</v>
+      </c>
+      <c r="J58">
+        <v>-3</v>
+      </c>
+      <c r="K58">
+        <v>151799.94</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>1</v>
       </c>
@@ -2346,8 +2615,20 @@
       <c r="E59">
         <v>62067.81</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>19</v>
+      </c>
+      <c r="J59">
+        <v>-1</v>
+      </c>
+      <c r="K59">
+        <v>151799.94</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>1</v>
       </c>
@@ -2361,7 +2642,7 @@
         <v>62067.81</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>1</v>
       </c>
@@ -2374,8 +2655,20 @@
       <c r="E61">
         <v>5507235</v>
       </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>20</v>
+      </c>
+      <c r="J61">
+        <v>-3</v>
+      </c>
+      <c r="K61">
+        <v>10714285</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>1</v>
       </c>
@@ -2388,8 +2681,20 @@
       <c r="E62">
         <v>5507235</v>
       </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>20</v>
+      </c>
+      <c r="J62">
+        <v>-1</v>
+      </c>
+      <c r="K62">
+        <v>10714285</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>1</v>
       </c>
@@ -2403,7 +2708,7 @@
         <v>5507235</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>1</v>
       </c>
@@ -2416,8 +2721,20 @@
       <c r="E64">
         <v>2202893.75</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>21</v>
+      </c>
+      <c r="J64">
+        <v>-3</v>
+      </c>
+      <c r="K64">
+        <v>4285714</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>1</v>
       </c>
@@ -2430,8 +2747,20 @@
       <c r="E65">
         <v>2202893.75</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>21</v>
+      </c>
+      <c r="J65">
+        <v>-1</v>
+      </c>
+      <c r="K65">
+        <v>4285714</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>1</v>
       </c>
@@ -2445,7 +2774,7 @@
         <v>2202893.75</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>1</v>
       </c>
@@ -2458,8 +2787,20 @@
       <c r="E67">
         <v>25683178</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>22</v>
+      </c>
+      <c r="J67">
+        <v>-3</v>
+      </c>
+      <c r="K67">
+        <v>60000000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>1</v>
       </c>
@@ -2472,8 +2813,20 @@
       <c r="E68">
         <v>25683178</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>22</v>
+      </c>
+      <c r="J68">
+        <v>-1</v>
+      </c>
+      <c r="K68">
+        <v>60000000</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>1</v>
       </c>
@@ -2487,7 +2840,7 @@
         <v>25683178</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>1</v>
       </c>
@@ -2500,8 +2853,20 @@
       <c r="E70">
         <v>6420794.5</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>23</v>
+      </c>
+      <c r="J70">
+        <v>-3</v>
+      </c>
+      <c r="K70">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>1</v>
       </c>
@@ -2514,8 +2879,20 @@
       <c r="E71">
         <v>6420794.5</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>23</v>
+      </c>
+      <c r="J71">
+        <v>-1</v>
+      </c>
+      <c r="K71">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>1</v>
       </c>
@@ -2529,7 +2906,7 @@
         <v>6420794.5</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>1</v>
       </c>
@@ -2542,8 +2919,20 @@
       <c r="E73">
         <v>2140265</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>24</v>
+      </c>
+      <c r="J73">
+        <v>-3</v>
+      </c>
+      <c r="K73">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>1</v>
       </c>
@@ -2556,8 +2945,20 @@
       <c r="E74">
         <v>2140265</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>24</v>
+      </c>
+      <c r="J74">
+        <v>-1</v>
+      </c>
+      <c r="K74">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>1</v>
       </c>
@@ -2571,7 +2972,7 @@
         <v>2140265</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>1</v>
       </c>
@@ -2584,8 +2985,20 @@
       <c r="E76">
         <v>12858842</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>25</v>
+      </c>
+      <c r="J76">
+        <v>-3</v>
+      </c>
+      <c r="K76">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>1</v>
       </c>
@@ -2598,8 +3011,20 @@
       <c r="E77">
         <v>12858842</v>
       </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>25</v>
+      </c>
+      <c r="J77">
+        <v>-1</v>
+      </c>
+      <c r="K77">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>1</v>
       </c>
@@ -2613,7 +3038,7 @@
         <v>12858842</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>1</v>
       </c>
@@ -2626,8 +3051,20 @@
       <c r="E79">
         <v>6429421</v>
       </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>26</v>
+      </c>
+      <c r="J79">
+        <v>-3</v>
+      </c>
+      <c r="K79">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>1</v>
       </c>
@@ -2640,8 +3077,20 @@
       <c r="E80">
         <v>6429421</v>
       </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>26</v>
+      </c>
+      <c r="J80">
+        <v>-1</v>
+      </c>
+      <c r="K80">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>1</v>
       </c>
@@ -2655,7 +3104,7 @@
         <v>6429421</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>1</v>
       </c>
@@ -2668,8 +3117,20 @@
       <c r="E82">
         <v>1285884.25</v>
       </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>27</v>
+      </c>
+      <c r="J82">
+        <v>-3</v>
+      </c>
+      <c r="K82">
+        <v>2000000.12</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>1</v>
       </c>
@@ -2682,8 +3143,20 @@
       <c r="E83">
         <v>1285884.25</v>
       </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>27</v>
+      </c>
+      <c r="J83">
+        <v>-1</v>
+      </c>
+      <c r="K83">
+        <v>2000000.12</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>1</v>
       </c>
@@ -2698,7 +3171,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:E84" xr:uid="{D6D9AF95-8524-4E74-AABE-CF7900E3D75E}"/>
+  <autoFilter ref="B3:E84" xr:uid="{2B6E48B1-1863-4DD1-BA34-AF1BD9345B0F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>